--- a/biology/Botanique/Forêt_du_Tévelave/Forêt_du_Tévelave.xlsx
+++ b/biology/Botanique/Forêt_du_Tévelave/Forêt_du_Tévelave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_du_T%C3%A9velave</t>
+          <t>Forêt_du_Tévelave</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt du Tévelave est une forêt régionale de l'île de La Réunion, un département d'outre-mer français et une région ultrapériphérique dans le sud-ouest de l'océan Indien.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_du_T%C3%A9velave</t>
+          <t>Forêt_du_Tévelave</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est située dans les Hauts de la commune des Avirons en amont de son quartier appelé Le Tévelave, entre la ravine des Avirons à l'ouest et un rempart montagneux la séparant de la forêt des Makes à l'est. La forêt du Tévelave fait partie de la Forêt des Hauts sous le Vent ; elle constitue la principale tamarineraie naturelle de l’île et on peut y observer des spécimens centenaires remarquables[1].    
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est située dans les Hauts de la commune des Avirons en amont de son quartier appelé Le Tévelave, entre la ravine des Avirons à l'ouest et un rempart montagneux la séparant de la forêt des Makes à l'est. La forêt du Tévelave fait partie de la Forêt des Hauts sous le Vent ; elle constitue la principale tamarineraie naturelle de l’île et on peut y observer des spécimens centenaires remarquables.    
 </t>
         </is>
       </c>
